--- a/Test output data/Test_Blank_Roster.xlsx
+++ b/Test output data/Test_Blank_Roster.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="9">
   <si>
     <t>Date</t>
   </si>
@@ -35,36 +35,6 @@
   </si>
   <si>
     <t>Trainee</t>
-  </si>
-  <si>
-    <t>10/02/2018</t>
-  </si>
-  <si>
-    <t>11/02/2018</t>
-  </si>
-  <si>
-    <t>14/02/2018</t>
-  </si>
-  <si>
-    <t>15/02/2018</t>
-  </si>
-  <si>
-    <t>17/02/2018</t>
-  </si>
-  <si>
-    <t>18/02/2018</t>
-  </si>
-  <si>
-    <t>21/02/2018</t>
-  </si>
-  <si>
-    <t>22/02/2018</t>
-  </si>
-  <si>
-    <t>24/02/2018</t>
-  </si>
-  <si>
-    <t>25/02/2018</t>
   </si>
   <si>
     <t>Purple</t>
@@ -77,6 +47,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="YYYY-MM-DD HH:MM:SS"/>
+  </numFmts>
   <fonts count="2">
     <font>
       <sz val="11"/>
@@ -129,11 +102,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -461,25 +435,25 @@
       </c>
     </row>
     <row r="2" spans="1:7">
-      <c r="A2" t="s">
-        <v>7</v>
+      <c r="A2" s="2">
+        <v>43141</v>
       </c>
       <c r="B2" t="s">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="C2">
         <v>1</v>
       </c>
       <c r="D2">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:7">
-      <c r="A3" t="s">
+      <c r="A3" s="2">
+        <v>43142</v>
+      </c>
+      <c r="B3" t="s">
         <v>8</v>
-      </c>
-      <c r="B3" t="s">
-        <v>18</v>
       </c>
       <c r="C3">
         <v>1</v>
@@ -489,11 +463,11 @@
       </c>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" t="s">
+      <c r="A4" s="2">
+        <v>43142</v>
+      </c>
+      <c r="B4" t="s">
         <v>8</v>
-      </c>
-      <c r="B4" t="s">
-        <v>18</v>
       </c>
       <c r="C4">
         <v>2</v>
@@ -503,11 +477,11 @@
       </c>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" t="s">
+      <c r="A5" s="2">
+        <v>43142</v>
+      </c>
+      <c r="B5" t="s">
         <v>8</v>
-      </c>
-      <c r="B5" t="s">
-        <v>18</v>
       </c>
       <c r="C5">
         <v>3</v>
@@ -517,53 +491,53 @@
       </c>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" t="s">
-        <v>9</v>
+      <c r="A6" s="2">
+        <v>43145</v>
       </c>
       <c r="B6" t="s">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="C6">
         <v>1</v>
       </c>
       <c r="D6">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="7" spans="1:7">
-      <c r="A7" t="s">
-        <v>10</v>
+      <c r="A7" s="2">
+        <v>43146</v>
       </c>
       <c r="B7" t="s">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="C7">
         <v>1</v>
       </c>
       <c r="D7">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="8" spans="1:7">
-      <c r="A8" t="s">
-        <v>11</v>
+      <c r="A8" s="2">
+        <v>43148</v>
       </c>
       <c r="B8" t="s">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="C8">
         <v>1</v>
       </c>
       <c r="D8">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="9" spans="1:7">
-      <c r="A9" t="s">
-        <v>12</v>
+      <c r="A9" s="2">
+        <v>43149</v>
       </c>
       <c r="B9" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="C9">
         <v>1</v>
@@ -573,11 +547,11 @@
       </c>
     </row>
     <row r="10" spans="1:7">
-      <c r="A10" t="s">
-        <v>12</v>
+      <c r="A10" s="2">
+        <v>43149</v>
       </c>
       <c r="B10" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="C10">
         <v>2</v>
@@ -587,11 +561,11 @@
       </c>
     </row>
     <row r="11" spans="1:7">
-      <c r="A11" t="s">
-        <v>12</v>
+      <c r="A11" s="2">
+        <v>43149</v>
       </c>
       <c r="B11" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="C11">
         <v>3</v>
@@ -601,59 +575,59 @@
       </c>
     </row>
     <row r="12" spans="1:7">
-      <c r="A12" t="s">
-        <v>13</v>
+      <c r="A12" s="2">
+        <v>43152</v>
       </c>
       <c r="B12" t="s">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="C12">
         <v>1</v>
       </c>
       <c r="D12">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="13" spans="1:7">
-      <c r="A13" t="s">
-        <v>14</v>
+      <c r="A13" s="2">
+        <v>43153</v>
       </c>
       <c r="B13" t="s">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="C13">
         <v>1</v>
       </c>
       <c r="D13">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="14" spans="1:7">
-      <c r="A14" t="s">
-        <v>15</v>
+      <c r="A14" s="2">
+        <v>43155</v>
       </c>
       <c r="B14" t="s">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="C14">
         <v>1</v>
       </c>
       <c r="D14">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="15" spans="1:7">
-      <c r="A15" t="s">
-        <v>16</v>
+      <c r="A15" s="2">
+        <v>43156</v>
       </c>
       <c r="B15" t="s">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="C15">
         <v>1</v>
       </c>
       <c r="D15">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
   </sheetData>

--- a/Test output data/Test_Blank_Roster.xlsx
+++ b/Test output data/Test_Blank_Roster.xlsx
@@ -1,15 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22228"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sambi\OneDrive\Documents\WLLR\Rostering program\Code development\Python code\Test output data\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="1" documentId="11_9157818B6DB76A88BBC15513F60042F2B6D78C53" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{EF9151E9-0316-4C0B-BD2A-352EA67FBF90}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="780" yWindow="780" windowWidth="21600" windowHeight="11145" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Roster" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
@@ -46,11 +52,11 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="YYYY-MM-DD HH:MM:SS"/>
+    <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd"/>
   </numFmts>
-  <fonts count="2">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -114,6 +120,14 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -160,7 +174,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -192,9 +206,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -226,6 +258,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -401,17 +451,23 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.7109375" customWidth="1"/>
+    <col min="1" max="1" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="6.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="6.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="7.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -434,7 +490,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="2">
         <v>43141</v>
       </c>
@@ -448,7 +504,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
         <v>43142</v>
       </c>
@@ -462,7 +518,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:7">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
         <v>43142</v>
       </c>
@@ -476,7 +532,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:7">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
         <v>43142</v>
       </c>
@@ -490,7 +546,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:7">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
         <v>43145</v>
       </c>
@@ -504,7 +560,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="1:7">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
         <v>43146</v>
       </c>
@@ -518,7 +574,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:7">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
         <v>43148</v>
       </c>
@@ -532,7 +588,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:7">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
         <v>43149</v>
       </c>
@@ -546,7 +602,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="10" spans="1:7">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
         <v>43149</v>
       </c>
@@ -560,7 +616,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="11" spans="1:7">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
         <v>43149</v>
       </c>
@@ -574,7 +630,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="1:7">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="2">
         <v>43152</v>
       </c>
@@ -588,7 +644,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="13" spans="1:7">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="2">
         <v>43153</v>
       </c>
@@ -602,7 +658,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="14" spans="1:7">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="2">
         <v>43155</v>
       </c>
@@ -616,7 +672,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="15" spans="1:7">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="2">
         <v>43156</v>
       </c>

--- a/Test output data/Test_Blank_Roster.xlsx
+++ b/Test output data/Test_Blank_Roster.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sambi\OneDrive\Documents\WLLR\Rostering program\Code development\Python code\Test output data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="11_9157818B6DB76A88BBC15513F60042F2B6D78C53" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{EF9151E9-0316-4C0B-BD2A-352EA67FBF90}"/>
+  <xr:revisionPtr revIDLastSave="1" documentId="11_9347818B6DB76A88BBC15513F60042F2265AA78F" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{D98218FA-49E7-435C-B2F1-C3B2D22FF737}"/>
   <bookViews>
-    <workbookView xWindow="780" yWindow="780" windowWidth="21600" windowHeight="11145" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Roster" sheetId="1" r:id="rId1"/>

--- a/Test output data/Test_Blank_Roster.xlsx
+++ b/Test output data/Test_Blank_Roster.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sambi\OneDrive\Documents\WLLR\Rostering program\Code development\Python code\Test output data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="11_9347818B6DB76A88BBC15513F60042F2265AA78F" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{D98218FA-49E7-435C-B2F1-C3B2D22FF737}"/>
+  <xr:revisionPtr revIDLastSave="1" documentId="11_F14D818B6DB76A88BBC15513F60042F2F65DFDD3" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{201F0B17-2515-4353-B154-66E68261CEAB}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1560" yWindow="1560" windowWidth="21600" windowHeight="11145" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Roster" sheetId="1" r:id="rId1"/>

--- a/Test output data/Test_Blank_Roster.xlsx
+++ b/Test output data/Test_Blank_Roster.xlsx
@@ -10,7 +10,7 @@
   </mc:AlternateContent>
   <xr:revisionPtr revIDLastSave="1" documentId="11_F14D818B6DB76A88BBC15513F60042F2F65DFDD3" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{201F0B17-2515-4353-B154-66E68261CEAB}"/>
   <bookViews>
-    <workbookView xWindow="1560" yWindow="1560" windowWidth="21600" windowHeight="11145" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Roster" sheetId="1" r:id="rId1"/>
